--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_PL0001_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_PL0001_CIL.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83F514-B617-46E0-A317-77B1E3BD529F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="15372" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="inputs" sheetId="1" r:id="rId4"/>
-    <sheet name="uPMU sw - more info" sheetId="2" r:id="rId5"/>
-    <sheet name="outputs" sheetId="3" r:id="rId6"/>
+    <sheet name="inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="uPMU sw - more info" sheetId="2" r:id="rId2"/>
+    <sheet name="outputs" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Imported Author</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -37,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>Register</t>
   </si>
@@ -156,23 +165,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -321,74 +317,42 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,31 +361,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffb7b7b7"/>
-      <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFB7B7B7"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -623,7 +641,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -642,7 +660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -672,7 +690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -698,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -724,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -750,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -802,7 +820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -828,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,7 +872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -880,7 +898,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,9 +911,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -912,7 +936,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -931,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -957,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -983,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1009,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1165,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,9 +1202,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1194,7 +1224,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1213,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1243,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1269,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1321,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1399,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,7 +1455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1464,45 +1494,53 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.3516" style="1" customWidth="1"/>
-    <col min="6" max="13" width="14.5" style="1" customWidth="1"/>
-    <col min="14" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="14.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
@@ -1514,11 +1552,11 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5">
@@ -1539,11 +1577,11 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="14.4" customHeight="1">
+    <row r="3" spans="1:13" ht="14.4" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6">
@@ -1564,11 +1602,11 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" ht="14.4" customHeight="1">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6">
@@ -1589,11 +1627,11 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" ht="13.2" customHeight="1">
+    <row r="5" spans="1:13" ht="13.2" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4">
@@ -1614,11 +1652,11 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" ht="13.2" customHeight="1">
+    <row r="6" spans="1:13" ht="13.2" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
@@ -1639,11 +1677,11 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" ht="13.2" customHeight="1">
+    <row r="7" spans="1:13" ht="13.2" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4">
@@ -1664,11 +1702,11 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" ht="13.2" customHeight="1">
+    <row r="8" spans="1:13" ht="13.2" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4">
@@ -1689,21 +1727,21 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D9" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E9" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1714,11 +1752,11 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="7">
@@ -1739,20 +1777,20 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="10">
         <v>17</v>
       </c>
-      <c r="B11" t="s" s="11">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s" s="11">
+      <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s" s="11">
+      <c r="E11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="12"/>
@@ -1764,20 +1802,20 @@
       <c r="L11" s="12"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="10">
         <v>18</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s" s="11">
+      <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s" s="11">
+      <c r="E12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="12"/>
@@ -1789,20 +1827,20 @@
       <c r="L12" s="12"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="10">
         <v>19</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s" s="11">
+      <c r="D13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s" s="11">
+      <c r="E13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="12"/>
@@ -1814,20 +1852,20 @@
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="10">
         <v>20</v>
       </c>
-      <c r="B14" t="s" s="11">
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s" s="11">
+      <c r="D14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s" s="11">
+      <c r="E14" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="12"/>
@@ -1839,20 +1877,20 @@
       <c r="L14" s="12"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="10">
         <v>21</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s" s="11">
+      <c r="D15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s" s="11">
+      <c r="E15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="12"/>
@@ -1864,20 +1902,20 @@
       <c r="L15" s="12"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="10">
         <v>22</v>
       </c>
-      <c r="B16" t="s" s="11">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s" s="11">
+      <c r="D16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s" s="11">
+      <c r="E16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="12"/>
@@ -1889,7 +1927,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
+    <row r="17" spans="1:13" ht="13.65" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1904,7 +1942,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" ht="13.65" customHeight="1">
+    <row r="18" spans="1:13" ht="13.65" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1919,7 +1957,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" ht="14.4" customHeight="1">
+    <row r="19" spans="1:13" ht="14.4" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="15"/>
@@ -1934,7 +1972,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" ht="14.4" customHeight="1">
+    <row r="20" spans="1:13" ht="14.4" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="15"/>
@@ -1951,108 +1989,106 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="16" customWidth="1"/>
-    <col min="3" max="5" width="14.5" style="16" customWidth="1"/>
-    <col min="6" max="256" width="14.5" style="16" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="16" customWidth="1"/>
+    <col min="3" max="256" width="14.44140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="3"/>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3"/>
@@ -2060,21 +2096,21 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2083,7 +2119,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2091,109 +2127,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="14.5" style="17" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" style="17" customWidth="1"/>
     <col min="3" max="3" width="54" style="17" customWidth="1"/>
-    <col min="4" max="5" width="14.5" style="17" customWidth="1"/>
-    <col min="6" max="256" width="14.5" style="17" customWidth="1"/>
+    <col min="4" max="256" width="14.44140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="19">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s" s="19">
+      <c r="C3" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="19">
+      <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s" s="19">
+      <c r="C4" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:5" ht="13.65" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:5" ht="13.65" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:5" ht="13.65" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:5" ht="13.65" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:5" ht="13.65" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2202,7 +2237,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/flexlab/sw_mat_HIL2/HIL_switch_matrix_PL0001_CIL.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL_switch_matrix_PL0001_CIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\Documents\energise-implementation\flexlab\sw_mat_HIL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83F514-B617-46E0-A317-77B1E3BD529F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D754E13-05B4-4642-8892-29B5D6B99752}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2508" windowWidth="15372" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Register</t>
   </si>
@@ -1516,7 +1516,7 @@
   <dimension ref="A1:IV20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="6">
         <v>3</v>
